--- a/biology/Médecine/1180_en_santé_et_médecine/1180_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1180_en_santé_et_médecine/1180_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1180_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1180_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1180 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1180_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1180_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le roi de France Louis VII meurt d'un second ictus, le premier, avec hémiplégie droite, l'ayant frappé l'année précédente 1179[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le roi de France Louis VII meurt d'un second ictus, le premier, avec hémiplégie droite, l'ayant frappé l'année précédente 1179.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1180_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1180_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,13 +555,15 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Une maladrerie est mentionnée à Avranches dans les rôles de l'Échiquier de Normandie[2].
-Une maladrerie est attestée à Carsix au diocèse de Lisieux, aujourd'hui d’Évreux, en Normandie[2].
-Fondation d'une léproserie à Montfort, en Normandie, par les seigneurs du lieu[2].
-Entre 1170 et 1180 : la léproserie Saint-Nicolas, dont les revenus serviront à fonder l'hospice général d'Évreux, en Normandie, est mentionnée dans l'acte d'une donation faite entre les mains de Gilles du Perche, évêque d'Évreux[2].
-1180-1182 : fondation d'un hôpital au Mans, chef-lieu de la sénéchaussée du Maine, par le roi Henri II[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Une maladrerie est mentionnée à Avranches dans les rôles de l'Échiquier de Normandie.
+Une maladrerie est attestée à Carsix au diocèse de Lisieux, aujourd'hui d’Évreux, en Normandie.
+Fondation d'une léproserie à Montfort, en Normandie, par les seigneurs du lieu.
+Entre 1170 et 1180 : la léproserie Saint-Nicolas, dont les revenus serviront à fonder l'hospice général d'Évreux, en Normandie, est mentionnée dans l'acte d'une donation faite entre les mains de Gilles du Perche, évêque d'Évreux.
+1180-1182 : fondation d'un hôpital au Mans, chef-lieu de la sénéchaussée du Maine, par le roi Henri II.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1180_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1180_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Martin, médecin à Mâcon[4].
-Fl. Odardus, médecin, inscrit sur le rôle de l'Échiquier de Normandie[4].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Martin, médecin à Mâcon.
+Fl. Odardus, médecin, inscrit sur le rôle de l'Échiquier de Normandie.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1180_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1180_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Li Dongyuan (mort en 1251), médecin chinois, auteur, en 1249, d'un « Traité de la rate et de l'estomac[5] » (Pi Wei Lun).
-Vers 1180[6] : Gilbert de Aquila (en) (mort vers 1250[6]), médecin anglais, auteur d'un Compendium medicinae (« Abrégé de médecine ») très probablement rédigé entre 1230 et 1250[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Li Dongyuan (mort en 1251), médecin chinois, auteur, en 1249, d'un « Traité de la rate et de l'estomac » (Pi Wei Lun).
+Vers 1180 : Gilbert de Aquila (en) (mort vers 1250), médecin anglais, auteur d'un Compendium medicinae (« Abrégé de médecine ») très probablement rédigé entre 1230 et 1250.
 </t>
         </is>
       </c>
